--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3092586.168257554</v>
+        <v>3199815.609655641</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8293347.962151906</v>
+        <v>8306796.407531549</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>281.0415821094576</v>
+        <v>81.8897235316275</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>25.56018538799765</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>172.2227881064207</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.8321196145425</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>368.1629217297378</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.153367246128644</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>97.09320362163757</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>128.67944676006</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>376.7018461067034</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.93482921065049</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>47.78193019846672</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>132.473663369464</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>142.3575218158273</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>90.00079239153432</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174138</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>1.799772605717294</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>78.58522891595203</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>93.05052491174666</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>144.108843301494</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>40.15381658332863</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2606,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S28" t="n">
-        <v>172.026033500079</v>
+        <v>55.49215756129489</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>21.90286287505419</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>35.41770597126712</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>191.5948276414184</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3430,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>31.40247677523102</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>14.19454216862697</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,16 +3480,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>52.10645541514122</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -3709,7 +3711,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>42.53134576113764</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>132.3950627812471</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>228.3166654621897</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>118.4651697467935</v>
       </c>
       <c r="E46" t="n">
-        <v>83.87284639171808</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4183,7 +4185,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1479.530414586155</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="C2" t="n">
-        <v>1479.530414586155</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="D2" t="n">
-        <v>1121.264715979405</v>
+        <v>531.4162778577438</v>
       </c>
       <c r="E2" t="n">
-        <v>1121.264715979405</v>
+        <v>145.6280252594996</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,7 +4333,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4358,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847235</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1479.530414586155</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1479.530414586155</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4412,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>299.2648838844854</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.9684409159571</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>957.2304598751772</v>
       </c>
       <c r="N3" t="n">
-        <v>1861.38035112061</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.1367340659135</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="C4" t="n">
-        <v>198.1367340659135</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1610.627750995712</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1413.999003155573</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1191.020522350309</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1191.020522350309</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>936.3360341444215</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>646.9188641074609</v>
+        <v>918.6808821437405</v>
       </c>
       <c r="X4" t="n">
-        <v>418.9293132094435</v>
+        <v>918.6808821437405</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.1367340659135</v>
+        <v>697.8883030002104</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259408</v>
+        <v>1603.431679675683</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283596</v>
+        <v>1213.292347699871</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>662.3527266874009</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8175152271517</v>
+        <v>614.3137812221298</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8175152271517</v>
+        <v>614.3137812221298</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>464.1971418097941</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>464.1971418097941</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>317.3071943118837</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>149.3207296201623</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>149.3207296201623</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1016.7548251959</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>795.9622460523696</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2089.358425227296</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="C8" t="n">
-        <v>1720.395908286885</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D8" t="n">
-        <v>1362.130209680134</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W8" t="n">
-        <v>2866.09759726723</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X8" t="n">
-        <v>2866.09759726723</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="Y8" t="n">
-        <v>2475.958265291418</v>
+        <v>1164.556021659469</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.7293032143257</v>
+        <v>690.2022503986784</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143257</v>
+        <v>521.2660674707715</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143257</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676413</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X10" t="n">
-        <v>452.6479724696239</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="Y10" t="n">
-        <v>231.8553933260938</v>
+        <v>871.8507152289181</v>
       </c>
     </row>
     <row r="11">
@@ -5024,58 +5026,58 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>454.604838556055</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2486053718725</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>1090.767110287001</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>921.8309273590944</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>771.7142879467586</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>623.8011943643655</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>476.9112468664551</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>309.7151475813351</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1578.981115722978</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>1272.415575117241</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,13 +5357,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
         <v>716.6687843969308</v>
@@ -5413,22 +5415,22 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>113.9333885650331</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5504,7 +5506,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5519,22 +5521,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5543,13 +5545,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2757.723669558405</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>2588.787486630498</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>2586.969534503511</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>2586.969534503511</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>2586.969534503511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.255922673039</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>3677.571434467152</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>3388.154264430192</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>3160.164713532175</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>2939.372134388645</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5837,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>4127.340720125057</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>3872.65623191917</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>3583.239061882209</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>3355.249510984192</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>3355.249510984192</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459586</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180517</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D25" t="n">
-        <v>449.485266605716</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>301.5721730233229</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>301.5721730233229</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>134.3760737382028</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761984</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6223,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6254,10 +6256,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6306,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096656</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.53722908186</v>
+        <v>929.7309773356201</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153953</v>
+        <v>929.7309773356201</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741617</v>
+        <v>779.6143379232842</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>631.701244340891</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4517.069482196494</v>
+        <v>2323.864695427314</v>
       </c>
       <c r="T28" t="n">
-        <v>4517.069482196494</v>
+        <v>2104.263230450255</v>
       </c>
       <c r="U28" t="n">
-        <v>4517.069482196494</v>
+        <v>2104.263230450255</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990608</v>
+        <v>1849.578742244368</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953647</v>
+        <v>1560.161572207408</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>1332.17202130939</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912099</v>
+        <v>1111.37944216586</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6485,25 +6487,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6536,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
         <v>1344.266747951537</v>
@@ -6601,22 +6603,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6695,13 +6697,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6725,13 +6727,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2418.621364762389</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>2913.946970978148</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M33" t="n">
-        <v>3511.3254586047</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>4138.923422159307</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O33" t="n">
-        <v>4690.833152398594</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327652</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048583</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925226</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101294</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>296.7882229101294</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>129.5921236250094</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6880,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>950.7540666811332</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6934,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -7017,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1030.918378293891</v>
+        <v>3079.45386151189</v>
       </c>
       <c r="C37" t="n">
-        <v>861.9821953659846</v>
+        <v>2910.517678583984</v>
       </c>
       <c r="D37" t="n">
-        <v>711.8655559536488</v>
+        <v>2760.401039171648</v>
       </c>
       <c r="E37" t="n">
-        <v>563.9524623712557</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="F37" t="n">
-        <v>417.0625148733453</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G37" t="n">
-        <v>249.8664155882253</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H37" t="n">
-        <v>108.1545844304234</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>3709.884456383677</v>
       </c>
       <c r="X37" t="n">
-        <v>1433.359422267661</v>
+        <v>3481.89490548566</v>
       </c>
       <c r="Y37" t="n">
-        <v>1212.566843124131</v>
+        <v>3261.10232634213</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913447</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K39" t="n">
-        <v>2715.159942084667</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L39" t="n">
-        <v>3210.485548300426</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M39" t="n">
-        <v>3807.864035926978</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>4435.461999481585</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>4435.461999481585</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7357,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7403,22 +7405,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7427,13 +7429,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.6374272687974</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C43" t="n">
-        <v>631.7012443408905</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>604.4387941280861</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>456.525700545693</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>309.6357530477826</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7606,13 +7608,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1203.078471242567</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1203.078471242567</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.2858920990371</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2565.513299557012</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L45" t="n">
-        <v>3060.83890577277</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>3658.217393399322</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>4285.815356953929</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770323</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C46" t="n">
-        <v>634.3345878491255</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D46" t="n">
-        <v>634.3345878491255</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E46" t="n">
         <v>549.6145409888042</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072721</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8060,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.955613488307165</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.454437538930279</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.9377812015499</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8298,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>70.03064962107879</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>319.4183821282438</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -11075,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>7.821049476759839</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>144.1654765207637</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.61468062667804</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>146.8157004124951</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>139.9994244361428</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>193.1339494774975</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4.506629716718351</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>100.1408962628952</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>9.000252501565598</v>
+        <v>125.5341284403498</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431582</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>104.8770068749567</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>34.1148277476187</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>115.0314858713382</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>67.07129414993855</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>113.4176828771276</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>33.12907551102177</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>58.20633287440126</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>30.15030327141884</v>
       </c>
       <c r="E46" t="n">
-        <v>62.56111625485109</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>725730.876211396</v>
+        <v>732861.1892126809</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>725730.876211396</v>
+        <v>732861.1892126809</v>
       </c>
     </row>
     <row r="5">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>713572.6023089034</v>
+        <v>713572.6023089032</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>713572.6023089034</v>
+        <v>713572.6023089032</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>713572.6023089032</v>
+        <v>713572.6023089034</v>
       </c>
     </row>
     <row r="14">
@@ -26317,40 +26319,40 @@
         <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26366,37 +26368,37 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.190934047675303e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605439</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26420,43 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.34719808325</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808321</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732022</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426731939</v>
+      </c>
+      <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="H4" t="n">
-        <v>8117.31242673194</v>
-      </c>
       <c r="I4" t="n">
-        <v>8117.312426731938</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731882</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="L4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="O4" t="n">
         <v>8117.312426731934</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426731976</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426731976</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426731947</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,40 +26524,40 @@
         <v>-623596.0076463802</v>
       </c>
       <c r="C6" t="n">
-        <v>319734.5192596654</v>
+        <v>491155.7759295395</v>
       </c>
       <c r="D6" t="n">
-        <v>523173.2608717714</v>
+        <v>491155.7759295397</v>
       </c>
       <c r="E6" t="n">
-        <v>271600.9706707614</v>
+        <v>89527.99085357052</v>
       </c>
       <c r="F6" t="n">
-        <v>597013.4324781165</v>
+        <v>597013.4324781162</v>
       </c>
       <c r="G6" t="n">
-        <v>597013.4324781166</v>
+        <v>597013.4324781167</v>
       </c>
       <c r="H6" t="n">
         <v>597013.4324781162</v>
       </c>
       <c r="I6" t="n">
+        <v>597013.4324781165</v>
+      </c>
+      <c r="J6" t="n">
+        <v>429408.2546681337</v>
+      </c>
+      <c r="K6" t="n">
         <v>597013.4324781161</v>
       </c>
-      <c r="J6" t="n">
-        <v>429408.2546681334</v>
-      </c>
-      <c r="K6" t="n">
-        <v>547903.3397720623</v>
-      </c>
       <c r="L6" t="n">
-        <v>597013.4324781164</v>
+        <v>597013.4324781166</v>
       </c>
       <c r="M6" t="n">
-        <v>511958.4045426046</v>
+        <v>464406.13874919</v>
       </c>
       <c r="N6" t="n">
-        <v>597013.4324781164</v>
+        <v>597013.4324781167</v>
       </c>
       <c r="O6" t="n">
         <v>597013.4324781164</v>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26816,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26823,10 +26825,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,28 +26962,28 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>125.8344636322539</v>
+        <v>324.9863222100839</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>75.99738703157598</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>114.3002102301703</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115.9017220489381</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1.568178948731259</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>146.4621057720837</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>7.703391582263009</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>253.2509233122018</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>9.536092549350144</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.8971509712868</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>100.8335428197456</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="12">
@@ -29499,7 +29501,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-9.565603962409089e-14</v>
       </c>
     </row>
     <row r="29">
@@ -29797,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30508,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121655</v>
       </c>
       <c r="L12" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,16 +32077,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>243.172991359853</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>233.3139244897919</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
@@ -33260,19 +33262,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>163.572382128305</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33494,13 +33496,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.605272155109</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33515,7 +33517,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33737,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33749,13 +33751,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,10 +33970,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>182.7118610708584</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33983,13 +33985,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>391.9250669264611</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34211,28 +34213,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>514.6953762540926</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34378,7 +34380,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
@@ -34445,10 +34447,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,7 +34462,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34778,25 +34780,25 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>187.543109731792</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>341.8791195350533</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>367.7110102589289</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378065</v>
       </c>
       <c r="L12" t="n">
-        <v>134.2025531565913</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>94.75954470991771</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075003</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37163,7 +37165,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37399,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>55.87423440419167</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>257.9506595121309</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
@@ -37859,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>372.0991318096482</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,7 +38028,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,7 +38110,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875399</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3199815.609655641</v>
+        <v>3195678.452405489</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>293.7257750977127</v>
       </c>
       <c r="F2" t="n">
-        <v>81.8897235316275</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>122.9032152304793</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2227881064207</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>285.2133973457379</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>368.1629217297378</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>97.09320362163757</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>59.87594555353594</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>376.7018461067034</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>47.78193019846672</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>111.5109739231589</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>160.6789846282045</v>
       </c>
       <c r="H13" t="n">
-        <v>132.473663369464</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>90.00079239153432</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>100.5858322992699</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174138</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>56.04917322725558</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>78.58522891595203</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>93.05052491174666</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>144.108843301494</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>117.4665281367395</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856563</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>55.49215756129489</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>153.0347892581641</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>21.90286287505419</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.53432244437066</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>191.5948276414184</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>31.40247677523102</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>52.10645541514122</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>132.3950627812471</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>11.56087338713365</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>118.4651697467935</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>531.4162778577438</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C2" t="n">
-        <v>531.4162778577438</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="D2" t="n">
-        <v>531.4162778577438</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="E2" t="n">
-        <v>145.6280252594996</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4336,7 +4336,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218655</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844854</v>
+        <v>482.9033490193025</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159571</v>
+        <v>777.6069060507741</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751772</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516.2398381699707</v>
+        <v>2013.576367813029</v>
       </c>
       <c r="C4" t="n">
-        <v>516.2398381699707</v>
+        <v>1844.640184885122</v>
       </c>
       <c r="D4" t="n">
-        <v>366.1231987576349</v>
+        <v>1694.523545472787</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2365.710580560016</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2241.565918711047</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>2241.565918711047</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>2241.565918711047</v>
       </c>
       <c r="W4" t="n">
-        <v>918.6808821437405</v>
+        <v>2241.565918711047</v>
       </c>
       <c r="X4" t="n">
-        <v>918.6808821437405</v>
+        <v>2013.576367813029</v>
       </c>
       <c r="Y4" t="n">
-        <v>697.8883030002104</v>
+        <v>2013.576367813029</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1213.292347699871</v>
+        <v>1232.405431550704</v>
       </c>
       <c r="C5" t="n">
-        <v>844.329830759459</v>
+        <v>1232.405431550704</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>1232.405431550704</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>1232.405431550704</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>821.4195267610964</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>405.7147764853853</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,10 +4567,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872917</v>
@@ -4606,13 +4606,13 @@
         <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.31341879663</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X5" t="n">
-        <v>1603.431679675683</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="Y5" t="n">
-        <v>1213.292347699871</v>
+        <v>1232.405431550704</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>662.3527266874009</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.614745646621</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>614.3137812221298</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>614.3137812221298</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>464.1971418097941</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>464.1971418097941</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>317.3071943118837</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>149.3207296201623</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>149.3207296201623</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1244.744376093917</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1244.744376093917</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1016.7548251959</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>795.9622460523696</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>777.9561815953474</v>
+        <v>850.6201014348521</v>
       </c>
       <c r="C8" t="n">
-        <v>777.9561815953474</v>
+        <v>481.6575844944404</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9561815953474</v>
+        <v>123.3918858876899</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953474</v>
+        <v>123.3918858876899</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.83159218888</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>1545.062936918766</v>
+        <v>2000.825031735865</v>
       </c>
       <c r="X8" t="n">
-        <v>1545.062936918766</v>
+        <v>1627.359273474786</v>
       </c>
       <c r="Y8" t="n">
-        <v>1164.556021659469</v>
+        <v>1237.219941498974</v>
       </c>
     </row>
     <row r="9">
@@ -4880,13 +4880,13 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
         <v>909.2465818694943</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>690.2022503986784</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C10" t="n">
-        <v>521.2660674707715</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="D10" t="n">
-        <v>473.0014915127243</v>
+        <v>311.7972275475264</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0883979303312</v>
+        <v>163.8841339651333</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.643294372448</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.643294372448</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.8507152289181</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>454.604838556055</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718135</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1090.767110287001</v>
+        <v>869.9745311434721</v>
       </c>
       <c r="C13" t="n">
-        <v>921.8309273590944</v>
+        <v>701.0383482155652</v>
       </c>
       <c r="D13" t="n">
-        <v>771.7142879467586</v>
+        <v>550.9217088032294</v>
       </c>
       <c r="E13" t="n">
-        <v>623.8011943643655</v>
+        <v>403.0086152208363</v>
       </c>
       <c r="F13" t="n">
-        <v>476.9112468664551</v>
+        <v>256.1186677229259</v>
       </c>
       <c r="G13" t="n">
-        <v>309.7151475813351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1789.82229605222</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015258</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>1272.415575117242</v>
       </c>
       <c r="Y13" t="n">
-        <v>1272.415575117241</v>
+        <v>1051.622995973712</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,10 +5287,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5545,13 +5545,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
         <v>705.9324428257312</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4127.340720125057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3872.65623191917</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3583.239061882209</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3355.249510984192</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3355.249510984192</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>870.3164745246296</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>701.3802915967227</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.757518498399</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.964939354869</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,22 +6238,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,7 +6262,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356201</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356201</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>631.701244340891</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429805</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578604</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2323.864695427314</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2104.263230450255</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2104.263230450255</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.578742244368</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.161572207408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.17202130939</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.37944216586</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811332</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>950.7540666811332</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.7540666811332</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,28 +6949,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3079.45386151189</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2910.517678583984</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>2760.401039171648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661314</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3999.301626420638</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3709.884456383677</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3481.89490548566</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3261.10232634213</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>150.8995423128888</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>484.8243144841094</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703114</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424045</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>376.4492432300688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>228.5361496476756</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>228.5361496476756</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,43 +7399,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.4916164683287</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>754.5554335404219</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>604.4387941280861</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E43" t="n">
-        <v>456.525700545693</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F43" t="n">
-        <v>309.6357530477826</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>247.2061440917674</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>105.4943129339655</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611859</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683287</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,28 +7636,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7666,10 +7666,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>986.1256051221279</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>817.189422194221</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1616.556199993915</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1388.566649095898</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1167.774069952368</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.955613488307165</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>70.03064962107879</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
-        <v>319.4183821282438</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4.845153664064355</v>
       </c>
       <c r="H13" t="n">
-        <v>7.821049476759839</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>58.61468062667804</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>111.1976478713723</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>139.9994244361428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>193.1339494774975</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>4.506629716718351</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5341284403498</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>126.7126101431582</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.0811505738417</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>34.1148277476187</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>115.0314858713382</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>113.4176828771276</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>33.12907551102177</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>69.70496293143188</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>30.15030327141884</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>732861.1892126809</v>
+        <v>732861.189212681</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>713572.6023089032</v>
+        <v>713572.6023089034</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>713572.6023089034</v>
+        <v>713572.6023089032</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312481</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287549</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287557</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.274728755</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287557</v>
       </c>
       <c r="M2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="N2" t="n">
-        <v>706253.2747287557</v>
-      </c>
       <c r="O2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245463</v>
       </c>
       <c r="F3" t="n">
-        <v>1.190934047675303e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618637</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>134318.0002618638</v>
       </c>
-      <c r="D4" t="n">
-        <v>134318.0002618637</v>
-      </c>
       <c r="E4" t="n">
-        <v>8117.312426732022</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731939</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26441,22 +26441,22 @@
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731882</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-623596.0076463802</v>
+        <v>-623596.00764638</v>
       </c>
       <c r="C6" t="n">
+        <v>491155.7759295397</v>
+      </c>
+      <c r="D6" t="n">
         <v>491155.7759295395</v>
       </c>
-      <c r="D6" t="n">
-        <v>491155.7759295397</v>
-      </c>
       <c r="E6" t="n">
-        <v>89527.99085357052</v>
+        <v>89180.61159921327</v>
       </c>
       <c r="F6" t="n">
-        <v>597013.4324781162</v>
+        <v>596666.0532237593</v>
       </c>
       <c r="G6" t="n">
-        <v>597013.4324781167</v>
+        <v>596666.0532237594</v>
       </c>
       <c r="H6" t="n">
-        <v>597013.4324781162</v>
+        <v>596666.0532237593</v>
       </c>
       <c r="I6" t="n">
-        <v>597013.4324781165</v>
+        <v>596666.0532237591</v>
       </c>
       <c r="J6" t="n">
-        <v>429408.2546681337</v>
+        <v>429060.875413777</v>
       </c>
       <c r="K6" t="n">
-        <v>597013.4324781161</v>
+        <v>596666.0532237593</v>
       </c>
       <c r="L6" t="n">
-        <v>597013.4324781166</v>
+        <v>596666.0532237598</v>
       </c>
       <c r="M6" t="n">
-        <v>464406.13874919</v>
+        <v>464058.7594948328</v>
       </c>
       <c r="N6" t="n">
-        <v>597013.4324781167</v>
+        <v>596666.0532237596</v>
       </c>
       <c r="O6" t="n">
-        <v>597013.4324781164</v>
+        <v>596666.0532237594</v>
       </c>
       <c r="P6" t="n">
-        <v>597013.4324781166</v>
+        <v>596666.0532237595</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,22 +26813,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>88.20459497454908</v>
       </c>
       <c r="F2" t="n">
-        <v>324.9863222100839</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>97.84548076673263</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>114.3002102301703</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>15.80515521666752</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.568178948731259</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>7.703391582263009</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>347.0001001881755</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.536092549350144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>100.8335428197456</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>33.91007409977237</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,16 +28067,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29501,7 +29501,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-9.565603962409089e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>351.1157147121655</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>243.172991359853</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>163.572382128305</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>182.7118610708584</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34216,34 +34216,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>270.948695672725</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>187.543109731792</v>
+        <v>373.0365088578699</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>367.7110102589289</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>617.098742766094</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2742757378065</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>116.3353646931863</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36770,10 +36770,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>25.73094315394598</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>55.87423440419167</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507067</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3195678.452405489</v>
+        <v>3197438.982708275</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>293.7257750977127</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0.8165095851519739</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>31.04267725562643</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>122.9032152304793</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>285.2133973457379</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>123.2472796405361</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>50.98074812542808</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>59.87594555353594</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>182.9377227717321</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110028</v>
       </c>
       <c r="F10" t="n">
-        <v>111.5109739231589</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576164</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>160.6789846282045</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>75.21356227238265</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>100.5858322992699</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>56.04917322725558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>31.40247677522967</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>85.08368458989425</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>117.4665281367395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2611,13 +2611,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.0347892581641</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.0280580960833</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.53432244437066</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>11.56087338713365</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1545.062936918765</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="C2" t="n">
-        <v>1545.062936918765</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="D2" t="n">
-        <v>1545.062936918765</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>63.73588996002934</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>52.07154372472228</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>52.07154372472228</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918765</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1545.062936918765</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1545.062936918765</v>
+        <v>861.3216348137587</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193025</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507741</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606939</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2013.576367813029</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>1844.640184885122</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>1694.523545472787</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>1546.610451890394</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392483</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560016</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2241.565918711047</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2241.565918711047</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>2241.565918711047</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>2241.565918711047</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X4" t="n">
-        <v>2013.576367813029</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>2013.576367813029</v>
+        <v>1119.039399139519</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.405431550704</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.405431550704</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.405431550704</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.405431550704</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>821.4195267610964</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>405.7147764853853</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2313.147919269518</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>2313.147919269518</v>
       </c>
       <c r="W5" t="n">
-        <v>1622.544763526516</v>
+        <v>1960.379263999404</v>
       </c>
       <c r="X5" t="n">
-        <v>1622.544763526516</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1232.405431550704</v>
+        <v>1586.913505738324</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1584.950414897297</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.533244860336</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.543693962319</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.7511148187889</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>850.6201014348521</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="C8" t="n">
-        <v>481.6575844944404</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D8" t="n">
-        <v>123.3918858876899</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>123.3918858876899</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2377.55374984285</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2377.55374984285</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2377.55374984285</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.825031735865</v>
+        <v>2377.55374984285</v>
       </c>
       <c r="X8" t="n">
-        <v>1627.359273474786</v>
+        <v>2377.55374984285</v>
       </c>
       <c r="Y8" t="n">
-        <v>1237.219941498974</v>
+        <v>2377.55374984285</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4941,28 +4941,28 @@
         <v>461.9138669598622</v>
       </c>
       <c r="C10" t="n">
-        <v>461.9138669598622</v>
+        <v>292.9776840319553</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7972275475264</v>
+        <v>142.8610446196195</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8841339651333</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,16 +5077,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434721</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C13" t="n">
-        <v>701.0383482155652</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D13" t="n">
-        <v>550.9217088032294</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E13" t="n">
-        <v>403.0086152208363</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="F13" t="n">
-        <v>256.1186677229259</v>
+        <v>336.9860575577209</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>169.7899582726008</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.82229605222</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015259</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117242</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973712</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>277.5052172074016</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5743,13 +5743,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,16 +5761,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5983,58 +5983,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1569.732795130727</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.315625093766</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6262,7 +6262,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,7 +6490,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958734</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679666</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768874</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>414.4022433768874</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>414.4022433768874</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>247.2061440917674</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>105.4943129339655</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143851</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4.845153664064355</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>65.08115057384121</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>39.70888054695402</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>111.1976478713723</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>220.7351665485983</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>55.21102825632964</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5874149221290565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.0811505738417</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>69.70496293143188</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>732861.189212681</v>
+        <v>732861.1892126809</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>713572.6023089034</v>
+        <v>713572.6023089032</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>713572.6023089032</v>
+        <v>713572.6023089034</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312478</v>
-      </c>
       <c r="E2" t="n">
+        <v>706253.2747287549</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287549</v>
-      </c>
       <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245463</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
@@ -26438,13 +26438,13 @@
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732037</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731973</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-623596.00764638</v>
+        <v>-623596.0076463798</v>
       </c>
       <c r="C6" t="n">
         <v>491155.7759295397</v>
       </c>
       <c r="D6" t="n">
-        <v>491155.7759295395</v>
+        <v>491155.7759295397</v>
       </c>
       <c r="E6" t="n">
-        <v>89180.61159921327</v>
+        <v>89493.25292813405</v>
       </c>
       <c r="F6" t="n">
-        <v>596666.0532237593</v>
+        <v>596978.6945526809</v>
       </c>
       <c r="G6" t="n">
-        <v>596666.0532237594</v>
+        <v>596978.6945526813</v>
       </c>
       <c r="H6" t="n">
-        <v>596666.0532237593</v>
+        <v>596978.6945526809</v>
       </c>
       <c r="I6" t="n">
-        <v>596666.0532237591</v>
+        <v>596978.6945526807</v>
       </c>
       <c r="J6" t="n">
-        <v>429060.875413777</v>
+        <v>429373.5167426981</v>
       </c>
       <c r="K6" t="n">
-        <v>596666.0532237593</v>
+        <v>596978.6945526807</v>
       </c>
       <c r="L6" t="n">
-        <v>596666.0532237598</v>
+        <v>596978.6945526808</v>
       </c>
       <c r="M6" t="n">
-        <v>464058.7594948328</v>
+        <v>464371.4008237543</v>
       </c>
       <c r="N6" t="n">
-        <v>596666.0532237596</v>
+        <v>596978.6945526805</v>
       </c>
       <c r="O6" t="n">
-        <v>596666.0532237594</v>
+        <v>596978.6945526809</v>
       </c>
       <c r="P6" t="n">
-        <v>596666.0532237595</v>
+        <v>596978.6945526809</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>88.20459497454908</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>64.89340308731852</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>148.7893029263109</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>97.84548076673263</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>15.80515521666752</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>127.7979704879259</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>201.1568951983999</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>347.0001001881755</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27906,7 +27906,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>23.72046220850169</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>55.73584717546889</v>
       </c>
       <c r="F10" t="n">
-        <v>33.91007409977237</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718164</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O21" t="n">
-        <v>163.1438255932938</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,19 +32794,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,19 +33031,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34210,31 +34210,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578699</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34795,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977091</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>508.7132618620059</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113564</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974574</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O21" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
